--- a/files/cars.xlsx
+++ b/files/cars.xlsx
@@ -1,65 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="cars" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>car_name</t>
-  </si>
-  <si>
-    <t>average_price</t>
-  </si>
-  <si>
-    <t>horsepower</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Toyota Camry</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Ford Mustang</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Chevrolet Corvette</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BMW 3 Series</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Mercedes-Benz C-Class</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Audi A4</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Tesla Model 3</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,85 +66,142 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
-  </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -184,15 +239,15 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:lumMod val="102000"/>
                 <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:lumMod val="100000"/>
                 <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
@@ -253,32 +308,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
+            <a:satMod val="170000"/>
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
+                <a:lumMod val="102000"/>
                 <a:satMod val="150000"/>
                 <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
+                <a:lumMod val="103000"/>
                 <a:satMod val="130000"/>
                 <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="120000"/>
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -287,119 +342,109 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="8.38" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1">
+        <v>25000</v>
+      </c>
+      <c r="C1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>22000</v>
+      </c>
+      <c r="C2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>35000</v>
+      </c>
+      <c r="C3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>25000.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>70000</v>
+      </c>
+      <c r="C4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>22000.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>158.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>40000</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>35000.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>310.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B6">
+        <v>45000</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>70000.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>495.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B7">
+        <v>38000</v>
+      </c>
+      <c r="C7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>255.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45000.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>255.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>38000.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>248.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>283.0</v>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>